--- a/Arquivos/Banco Populado/Dados.xlsx
+++ b/Arquivos/Banco Populado/Dados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Medicamentos" sheetId="1" r:id="rId1"/>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
